--- a/tweets/selected_tweets.xlsx
+++ b/tweets/selected_tweets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmx-my.sharepoint.com/personal/zs14013866_estudiantes_uv_mx/Documents/MIA/ENC2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmx-my.sharepoint.com/personal/zs14013866_estudiantes_uv_mx/Documents/MIA/ENC2021/tweets_or/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{5F3FB20E-A19D-4295-B3AA-8A2B49C54503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268795F5-45B0-4E5F-98E0-9DCD25C354BE}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="8_{5F3FB20E-A19D-4295-B3AA-8A2B49C54503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6DD486F-08AC-4B36-BE49-FF40F1D40848}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{73D8C886-F333-46FA-9359-EE1E44B56898}"/>
+    <workbookView xWindow="-24120" yWindow="-2190" windowWidth="24240" windowHeight="13140" xr2:uid="{73D8C886-F333-46FA-9359-EE1E44B56898}"/>
   </bookViews>
   <sheets>
     <sheet name="sents" sheetId="3" r:id="rId1"/>
@@ -401,94 +401,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A568010-8EA1-4FF7-A2BC-C4EED6106E0E}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1170,6 +1167,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1177,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06327CE-2FCA-4F45-9359-BA9D52E36B85}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
